--- a/db/bigData.xlsx
+++ b/db/bigData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/1CB01E88-BF32-423A-B19F-4EDD65D46720/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A9890D-EB0B-4CC0-B543-201BAA3D177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D926E09B-FE57-46A7-A9A0-FA0D20A8EBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="รวม" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="644">
   <si>
     <t>รายชื่อมหาวิทยาลัย</t>
   </si>
@@ -107,6 +107,84 @@
   </si>
   <si>
     <t>ช่องทางติดต่อ</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>การสื่อสารภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>การคิดอย่างมีเหตุผล</t>
+  </si>
+  <si>
+    <t>สมรรถนะการทำงาน</t>
+  </si>
+  <si>
+    <t>ความถนัดศิลปกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>ความถนัดด้านวิทยาศาสตร์ เทคโนโลยี และวิศวกรรมศาสตร์</t>
+  </si>
+  <si>
+    <t>ความถนัดทางสถาปัตยกรรม</t>
+  </si>
+  <si>
+    <t>ความถนัดครุศาสตร์-ศึกษาศาสตร์</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Math1 วิชาคณิตศาสตร์ประยุกต์ 1</t>
+  </si>
+  <si>
+    <t>Math2 วิชาคณิตศาสตร์ประยุกต์ 2</t>
+  </si>
+  <si>
+    <t>Sci วิทยาศาสตร์ประยุกต์</t>
+  </si>
+  <si>
+    <t>Phy วิชาฟิสิกส์</t>
+  </si>
+  <si>
+    <t>Chem วิชาเคมี</t>
+  </si>
+  <si>
+    <t>Bio วิชาชีววิทยา</t>
+  </si>
+  <si>
+    <t>Soc สังคมศึกษา</t>
+  </si>
+  <si>
+    <t>Thai ภาษาไทย</t>
+  </si>
+  <si>
+    <t>Eng ภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>Fre ภาษาฝรั่งเศส</t>
+  </si>
+  <si>
+    <t>Ger ภาษาเยอรมัน</t>
+  </si>
+  <si>
+    <t>Jap ภาษาญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>Kor ภาษาเกาหลี</t>
+  </si>
+  <si>
+    <t>Chi ภาษาจีน</t>
+  </si>
+  <si>
+    <t>Bal ภาษาบาลี</t>
+  </si>
+  <si>
+    <t>Spn ภาษาสเปน</t>
+  </si>
+  <si>
+    <t>Personality</t>
   </si>
   <si>
     <t>รายชื่อคณะ</t>
@@ -957,9 +1035,6 @@
 13.1 0%</t>
   </si>
   <si>
-    <t>ความถนัดศิลปกรรมศาสตร์</t>
-  </si>
-  <si>
     <t>1.1 0%
 2.1 0%
 3.1 0%
@@ -1027,9 +1102,6 @@
 13.1 0%</t>
   </si>
   <si>
-    <t>ความถนัดด้านวิทยาศาสตร์ เทคโนโลยี และวิศวกรรมศาสตร์</t>
-  </si>
-  <si>
     <t>1.1 60%
 2.1 60%
 3.1 60%
@@ -1090,15 +1162,6 @@
 13.1 0%</t>
   </si>
   <si>
-    <t>ความถนัดทางสถาปัตยกรรม</t>
-  </si>
-  <si>
-    <t>ความถนัดครุศาสตร์-ศึกษาศาสตร์</t>
-  </si>
-  <si>
-    <t>Math1 วิชาคณิตศาสตร์ประยุกต์ 1</t>
-  </si>
-  <si>
     <t>1.1 20%
 1.2 20%</t>
   </si>
@@ -1130,15 +1193,6 @@
 13.1 0%</t>
   </si>
   <si>
-    <t>Math2 วิชาคณิตศาสตร์ประยุกต์ 2</t>
-  </si>
-  <si>
-    <t>Sci วิทยาศาสตร์ประยุกต์</t>
-  </si>
-  <si>
-    <t>Phy วิชาฟิสิกส์</t>
-  </si>
-  <si>
     <t>1.1 15%
 2.1 20%
 2.2 20%
@@ -1166,9 +1220,6 @@
 13.1 0%</t>
   </si>
   <si>
-    <t>Chem วิชาเคมี</t>
-  </si>
-  <si>
     <t>1.1 0%
 2.1 0%
 3.1 0%
@@ -1209,39 +1260,6 @@
 12.2 0%
 12.3 0%
 13.1 0%</t>
-  </si>
-  <si>
-    <t>Bio วิชาชีววิทยา</t>
-  </si>
-  <si>
-    <t>Soc สังคมศึกษา</t>
-  </si>
-  <si>
-    <t>Thai ภาษาไทย</t>
-  </si>
-  <si>
-    <t>Eng ภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>Fre ภาษาฝรั่งเศส</t>
-  </si>
-  <si>
-    <t>Ger ภาษาเยอรมัน</t>
-  </si>
-  <si>
-    <t>Jap ภาษาญี่ปุ่น</t>
-  </si>
-  <si>
-    <t>Kor ภาษาเกาหลี</t>
-  </si>
-  <si>
-    <t>Chi ภาษาจีน</t>
-  </si>
-  <si>
-    <t>Bal ภาษาบาลี</t>
-  </si>
-  <si>
-    <t>Spn ภาษาสเปน</t>
   </si>
   <si>
     <t>รอบ1 Portfolio</t>
@@ -2317,15 +2335,6 @@
   </si>
   <si>
     <t>1.1 วท.บ.นวัตกรรมดิจิทัล (นานาชาติ) วิทยาเขต วิทยาเขตหลัก</t>
-  </si>
-  <si>
-    <t>การสื่อสารภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>การคิดอย่างมีเหตุผล</t>
-  </si>
-  <si>
-    <t>สมรรถนะการทำงาน</t>
   </si>
   <si>
     <t>คณะสถาปัตยกรรม ศิลปะและการออกแบบ</t>
@@ -4089,6 +4098,36 @@
 4.2. ศิลปศาสตรบัณฑิต (การระหว่างประเทศ) หลักสูตรนานาชาติ การระหว่างประเทศ (หลักสูตรนานาชาติ) วิชาเอกความสัมพันธ์ระหว่างประเทศและการทูต (นานาชาติ) วิทยาเขต ขอนแก่น
 5.1 นิเทศศาสตรบัณฑิต (หลักสูตรนานาชาติ) นิเทศศาสตรบัณฑิต วิชาเอกเทคโนโลยีสื่อสร้างสรรค์ สาขาวิชานิเทศศาสตรบัณฑิต วิชาเอกเทคโนโลยีสื่อสร้างสรรค์ (นานาชาติ) วิทยาเขต ขอนแก่น
 5.2 นิเทศศาสตรบัณฑิต (หลักสูตรนานาชาติ) นิเทศศาสตรบัณฑิต วิชาเอกวารสารศาสตร์ระหว่างประเทศ สาขาวิชานิเทศศาสตรบัณฑิต วิชาเอกวารสารศาสตร์ระหว่างประเทศ (นานาชาติ) วิทยาเขต ขอนแก่น</t>
+  </si>
+  <si>
+    <t>personality</t>
+  </si>
+  <si>
+    <t>ISTP</t>
+  </si>
+  <si>
+    <t>INTP, INTJ, INFP, ISTP, ISTJ</t>
+  </si>
+  <si>
+    <t>ENTP, ENTJ, INTP, ISTP, ISTJ, ISFJ</t>
+  </si>
+  <si>
+    <t>ENFP, ESTP, ESFP, INTJ, INFP, INFJ, ISFP</t>
+  </si>
+  <si>
+    <t>ENFJ, ESFJ, ISFJ, ISFP, ISTJ</t>
+  </si>
+  <si>
+    <t>ENTJ, ENFJ, ESTJ, ESFP, INTP, INFP, INFJ, ISTJ, ISFJ</t>
+  </si>
+  <si>
+    <t>ESTJ, ESTP, ENFJ, ENTJ, ENTP, ISFJ, ISTJ, ISTP,  INFJ</t>
+  </si>
+  <si>
+    <t>ENFJ, ESTJ, ESFP, INFJ, ISTJ, ISFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTJ, INFJ, </t>
   </si>
   <si>
     <t>คณะการสร้างเจ้าของธุรกิจและการบริหารกิจการ</t>
@@ -4473,7 +4512,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4785,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFF78F9-F95A-DB45-A111-382948253643}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4807,7 +4846,7 @@
     <col min="15" max="15" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4854,19 +4893,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="33">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="33">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4881,8 +5004,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4910,250 +5033,250 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Q1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="R1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="S1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="T1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="U1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="V1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="W1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="167.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="409.6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="33">
@@ -5163,107 +5286,107 @@
     </row>
     <row r="12" spans="1:23" ht="50.25">
       <c r="A12" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="50.25">
       <c r="A13" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="50.25">
       <c r="A14" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="50.25">
       <c r="A15" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="117">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="66.75">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="66.75">
       <c r="A18" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="81.75">
       <c r="A19" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="81.75">
       <c r="A20" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="50.25">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="33">
       <c r="A22" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="31.5">
       <c r="A23" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="33">
       <c r="A24" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="33">
       <c r="A25" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="31.5">
       <c r="A26" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="33">
       <c r="A27" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="33">
       <c r="A28" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="33">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="33">
       <c r="A30" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="33">
       <c r="A31" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="33">
       <c r="A32" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5290,62 +5413,62 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="77.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -5361,99 +5484,99 @@
     </row>
     <row r="3" spans="1:16" ht="141">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="O3" s="24"/>
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="408.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="408.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5473,13 +5596,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5497,49 +5620,49 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="L7" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -5558,7 +5681,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5578,7 +5701,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -5598,53 +5721,53 @@
     </row>
     <row r="11" spans="1:16" ht="214.5">
       <c r="A11" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="5" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5664,7 +5787,7 @@
     </row>
     <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="5" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -5684,7 +5807,7 @@
     </row>
     <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="5" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5704,7 +5827,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5724,7 +5847,7 @@
     </row>
     <row r="16" spans="1:16" ht="33">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -5744,7 +5867,7 @@
     </row>
     <row r="17" spans="1:16" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5764,7 +5887,7 @@
     </row>
     <row r="18" spans="1:16" ht="16.5">
       <c r="A18" s="5" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5784,7 +5907,7 @@
     </row>
     <row r="19" spans="1:16" ht="16.5">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5804,7 +5927,7 @@
     </row>
     <row r="20" spans="1:16" ht="16.5">
       <c r="A20" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5824,7 +5947,7 @@
     </row>
     <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="5" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5844,7 +5967,7 @@
     </row>
     <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="5" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -5864,7 +5987,7 @@
     </row>
     <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -5884,7 +6007,7 @@
     </row>
     <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="5" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -5904,7 +6027,7 @@
     </row>
     <row r="25" spans="1:16" ht="16.5">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -5924,7 +6047,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.5">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -5944,7 +6067,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.5">
       <c r="A27" s="5" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5964,7 +6087,7 @@
     </row>
     <row r="28" spans="1:16" ht="16.5">
       <c r="A28" s="5" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5984,7 +6107,7 @@
     </row>
     <row r="29" spans="1:16" ht="16.5">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6004,7 +6127,7 @@
     </row>
     <row r="30" spans="1:16" ht="16.5">
       <c r="A30" s="5" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -6024,7 +6147,7 @@
     </row>
     <row r="31" spans="1:16" ht="16.5">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -6044,7 +6167,7 @@
     </row>
     <row r="32" spans="1:16" ht="16.5">
       <c r="A32" s="5" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -6064,7 +6187,7 @@
     </row>
     <row r="33" spans="1:16" ht="16.5">
       <c r="A33" s="15" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -6084,7 +6207,7 @@
     </row>
     <row r="34" spans="1:16" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -6104,22 +6227,22 @@
     </row>
     <row r="35" spans="1:16" ht="300">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -6134,22 +6257,22 @@
     </row>
     <row r="36" spans="1:16" ht="300">
       <c r="A36" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -6164,22 +6287,22 @@
     </row>
     <row r="37" spans="1:16" ht="300">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -6194,22 +6317,22 @@
     </row>
     <row r="38" spans="1:16" ht="300">
       <c r="A38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -6255,10 +6378,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6269,78 +6392,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -6367,149 +6490,149 @@
     </row>
     <row r="3" spans="1:23" ht="180">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="409.6" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -6536,7 +6659,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -6563,7 +6686,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -6590,7 +6713,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -6617,7 +6740,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -6644,7 +6767,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -6671,7 +6794,7 @@
     </row>
     <row r="11" spans="1:23" ht="16.5">
       <c r="A11" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -6698,7 +6821,7 @@
     </row>
     <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -6725,7 +6848,7 @@
     </row>
     <row r="13" spans="1:23" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -6752,7 +6875,7 @@
     </row>
     <row r="14" spans="1:23" ht="16.5">
       <c r="A14" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -6779,7 +6902,7 @@
     </row>
     <row r="15" spans="1:23" ht="33">
       <c r="A15" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -6806,7 +6929,7 @@
     </row>
     <row r="16" spans="1:23" ht="16.5">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -6833,7 +6956,7 @@
     </row>
     <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -6860,7 +6983,7 @@
     </row>
     <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -6887,7 +7010,7 @@
     </row>
     <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -6914,7 +7037,7 @@
     </row>
     <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -6941,7 +7064,7 @@
     </row>
     <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -6968,7 +7091,7 @@
     </row>
     <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -6995,7 +7118,7 @@
     </row>
     <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -7022,7 +7145,7 @@
     </row>
     <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -7049,7 +7172,7 @@
     </row>
     <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -7076,7 +7199,7 @@
     </row>
     <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -7103,7 +7226,7 @@
     </row>
     <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -7130,7 +7253,7 @@
     </row>
     <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -7157,7 +7280,7 @@
     </row>
     <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -7184,7 +7307,7 @@
     </row>
     <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -7211,7 +7334,7 @@
     </row>
     <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -7238,7 +7361,7 @@
     </row>
     <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -7265,7 +7388,7 @@
     </row>
     <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -7292,7 +7415,7 @@
     </row>
     <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -7319,7 +7442,7 @@
     </row>
     <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -7345,7 +7468,7 @@
     </row>
     <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -7371,7 +7494,7 @@
     </row>
     <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -7394,6 +7517,38 @@
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>606</v>
+      </c>
+      <c r="B38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C38" t="s">
+        <v>608</v>
+      </c>
+      <c r="D38" t="s">
+        <v>609</v>
+      </c>
+      <c r="F38" t="s">
+        <v>610</v>
+      </c>
+      <c r="H38" t="s">
+        <v>611</v>
+      </c>
+      <c r="I38" t="s">
+        <v>612</v>
+      </c>
+      <c r="J38" t="s">
+        <v>613</v>
+      </c>
+      <c r="K38" t="s">
+        <v>614</v>
+      </c>
+      <c r="L38" t="s">
+        <v>615</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7420,55 +7575,55 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="100.5">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7483,13 +7638,13 @@
     </row>
     <row r="3" spans="1:14" ht="33">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7504,13 +7659,13 @@
     </row>
     <row r="4" spans="1:14" ht="409.6" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7540,13 +7695,13 @@
     </row>
     <row r="6" spans="1:14" ht="408.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -7576,7 +7731,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7593,13 +7748,13 @@
     </row>
     <row r="9" spans="1:14" ht="117">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7614,13 +7769,13 @@
     </row>
     <row r="10" spans="1:14" ht="33">
       <c r="A10" s="5" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7635,7 +7790,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7652,13 +7807,13 @@
     </row>
     <row r="12" spans="1:14" ht="67.5">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7673,7 +7828,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7690,137 +7845,137 @@
     </row>
     <row r="14" spans="1:14" ht="33">
       <c r="A14" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33">
       <c r="A15" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33">
       <c r="A16" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="33">
       <c r="A17" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="66.75">
       <c r="A18" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="33">
       <c r="A19" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="50.25">
       <c r="A20" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="50.25">
       <c r="A21" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="50.25">
       <c r="A22" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="33">
       <c r="A23" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
       <c r="A38" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="32.25">
       <c r="A40" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7862,229 +8017,229 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="33">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="33">
       <c r="A11" s="15" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="29.25" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="15" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="33">
       <c r="A14" s="15" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="50.25">
       <c r="A15" s="15" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="33">
       <c r="A16" s="15" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="33">
       <c r="A17" s="15" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="49.5">
       <c r="A18" s="15" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="49.5">
       <c r="A19" s="15" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="33">
       <c r="A20" s="15" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="15" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="15" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="15" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="15" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="15" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="15" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="15" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="15" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="15" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="15" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="15" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="15" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="15" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="15" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="32.25">
       <c r="A37" s="15" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8107,192 +8262,192 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="50.25">
       <c r="A12" s="5" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="50.25">
       <c r="A13" s="5" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="50.25">
       <c r="A14" s="5" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="50.25">
       <c r="A15" s="5" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="117">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="66.75">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="66.75">
       <c r="A18" s="5" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="81.75">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="81.75">
       <c r="A20" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="50.25">
       <c r="A21" s="5" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="33">
       <c r="A22" s="5" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="31.5">
       <c r="A23" s="5" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="33">
       <c r="A24" s="5" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="33">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="31.5">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="33">
       <c r="A27" s="5" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="33">
       <c r="A28" s="5" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="33">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="33">
       <c r="A30" s="5" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="33">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="33">
       <c r="A32" s="5" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="33">
       <c r="A33" s="15" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="33">
       <c r="A34" s="5" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="32.25">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="32.25">
       <c r="A36" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="47.25">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="62.25">
       <c r="A38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8319,28 +8474,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -8348,187 +8503,187 @@
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="15" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="15" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="15" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="15" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="15" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="15" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="15" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="33">
       <c r="A12" s="5" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="33">
       <c r="A13" s="5" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33">
       <c r="A14" s="5" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="33">
       <c r="A15" s="5" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="66.75">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="33">
       <c r="A17" s="5" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="50.25">
       <c r="A18" s="5" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="50.25">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="50.25">
       <c r="A20" s="5" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="33">
       <c r="A21" s="5" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="5" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="5" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="5" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="5" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="5" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="5" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="5" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="15" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="5" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="32.25">
       <c r="A38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8567,7 +8722,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8576,82 +8731,82 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8666,7 +8821,7 @@
   </sheetPr>
   <dimension ref="A1:CJ493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8681,113 +8836,113 @@
   <sheetData>
     <row r="1" spans="1:88" ht="33">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -8843,59 +8998,59 @@
     </row>
     <row r="2" spans="1:88" ht="102.75">
       <c r="A2" s="9" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -8914,10 +9069,10 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
@@ -8973,111 +9128,111 @@
     </row>
     <row r="3" spans="1:88" ht="167.25">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -9133,111 +9288,111 @@
     </row>
     <row r="4" spans="1:88" ht="409.6">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
@@ -9293,7 +9448,7 @@
     </row>
     <row r="5" spans="1:88" ht="16.5">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9385,7 +9540,7 @@
     </row>
     <row r="6" spans="1:88" ht="16.5">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B6" s="27">
         <v>17800</v>
@@ -9511,10 +9666,10 @@
     </row>
     <row r="7" spans="1:88" ht="330.75">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
@@ -9605,10 +9760,10 @@
     </row>
     <row r="8" spans="1:88" ht="16.5">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
@@ -9624,7 +9779,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="29" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -9701,10 +9856,10 @@
     </row>
     <row r="9" spans="1:88" ht="16.5">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
@@ -9795,10 +9950,10 @@
     </row>
     <row r="10" spans="1:88" ht="16.5">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="4"/>
@@ -9889,10 +10044,10 @@
     </row>
     <row r="11" spans="1:88" ht="26.25">
       <c r="A11" s="9" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
@@ -9986,7 +10141,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
@@ -10002,7 +10157,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="7" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -10079,22 +10234,22 @@
     </row>
     <row r="13" spans="1:88" ht="381.75">
       <c r="A13" s="9" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -10181,22 +10336,22 @@
     </row>
     <row r="14" spans="1:88" ht="381.75">
       <c r="A14" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -10283,22 +10438,22 @@
     </row>
     <row r="15" spans="1:88" ht="381.75">
       <c r="A15" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -10385,22 +10540,22 @@
     </row>
     <row r="16" spans="1:88" ht="381.75">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -10487,22 +10642,22 @@
     </row>
     <row r="17" spans="1:88" ht="381.75">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -10589,22 +10744,22 @@
     </row>
     <row r="18" spans="1:88" ht="381.75">
       <c r="A18" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -10691,22 +10846,22 @@
     </row>
     <row r="19" spans="1:88" ht="381.75">
       <c r="A19" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -10793,22 +10948,22 @@
     </row>
     <row r="20" spans="1:88" ht="381.75">
       <c r="A20" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -10895,22 +11050,22 @@
     </row>
     <row r="21" spans="1:88" ht="381.75">
       <c r="A21" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -10997,22 +11152,22 @@
     </row>
     <row r="22" spans="1:88" ht="381.75">
       <c r="A22" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -11099,22 +11254,22 @@
     </row>
     <row r="23" spans="1:88" ht="381.75">
       <c r="A23" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -11201,22 +11356,22 @@
     </row>
     <row r="24" spans="1:88" ht="381.75">
       <c r="A24" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -11303,22 +11458,22 @@
     </row>
     <row r="25" spans="1:88" ht="381.75">
       <c r="A25" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -11405,22 +11560,22 @@
     </row>
     <row r="26" spans="1:88" ht="381.75">
       <c r="A26" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -11507,22 +11662,22 @@
     </row>
     <row r="27" spans="1:88" ht="381.75">
       <c r="A27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -11609,22 +11764,22 @@
     </row>
     <row r="28" spans="1:88" ht="381.75">
       <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -11711,22 +11866,22 @@
     </row>
     <row r="29" spans="1:88" ht="381.75">
       <c r="A29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -11813,22 +11968,22 @@
     </row>
     <row r="30" spans="1:88" ht="381.75">
       <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -11915,22 +12070,22 @@
     </row>
     <row r="31" spans="1:88" ht="381.75">
       <c r="A31" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -12017,22 +12172,22 @@
     </row>
     <row r="32" spans="1:88" ht="381.75">
       <c r="A32" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -12119,22 +12274,22 @@
     </row>
     <row r="33" spans="1:88" ht="381.75">
       <c r="A33" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -12221,22 +12376,22 @@
     </row>
     <row r="34" spans="1:88" ht="409.6">
       <c r="A34" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -12323,22 +12478,22 @@
     </row>
     <row r="35" spans="1:88" ht="409.6">
       <c r="A35" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -12425,22 +12580,22 @@
     </row>
     <row r="36" spans="1:88" ht="409.6">
       <c r="A36" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -12527,22 +12682,22 @@
     </row>
     <row r="37" spans="1:88" ht="409.6">
       <c r="A37" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -39645,7 +39800,7 @@
   </sheetPr>
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -39673,81 +39828,81 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="R1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="S1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="T1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="V1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="114.75">
       <c r="A2" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -39771,234 +39926,234 @@
     </row>
     <row r="3" spans="1:22" ht="128.25">
       <c r="A3" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="409.6">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="219">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="16" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5">
@@ -40008,172 +40163,172 @@
     </row>
     <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="33">
       <c r="A14" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="198">
       <c r="A33" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q33" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="V33" s="16">
         <v>1.1000000000000001</v>
@@ -40181,67 +40336,67 @@
     </row>
     <row r="34" spans="1:22" ht="198">
       <c r="A34" s="9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H34" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K34" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O34" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q34" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="V34" s="16">
         <v>1.1000000000000001</v>
@@ -40249,67 +40404,67 @@
     </row>
     <row r="35" spans="1:22" ht="198">
       <c r="A35" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H35" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K35" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O35" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q35" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="V35" s="16">
         <v>1.1000000000000001</v>
@@ -40317,67 +40472,67 @@
     </row>
     <row r="36" spans="1:22" ht="198">
       <c r="A36" s="9" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H36" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K36" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O36" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="16">
         <v>1.1000000000000001</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="V36" s="16">
         <v>1.1000000000000001</v>
@@ -40404,82 +40559,82 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -40505,82 +40660,82 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -40619,250 +40774,250 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="T1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="U1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="V1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="W1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="141">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="409.6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5">
@@ -40872,117 +41027,117 @@
     </row>
     <row r="12" spans="1:23" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.5">
       <c r="A14" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="16.5">
       <c r="A15" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -41016,196 +41171,196 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="O1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="231">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5">
@@ -41215,117 +41370,117 @@
     </row>
     <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="33">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -41375,148 +41530,148 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="S1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="U1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="V1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="W1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="X1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Y1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Z1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AA1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AB1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AC1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AD1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AE1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="16.5">
@@ -41526,117 +41681,117 @@
     </row>
     <row r="12" spans="1:33" ht="16.5">
       <c r="A12" s="9" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="16.5">
       <c r="A13" s="9" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5">
       <c r="A14" s="9" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5">
       <c r="A15" s="9" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="33">
       <c r="A16" s="9" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5">
       <c r="A17" s="9" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5">
       <c r="A19" s="9" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5">
       <c r="A20" s="9" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5">
       <c r="A21" s="9" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5">
       <c r="A23" s="9" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5">
       <c r="A24" s="9" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5">
       <c r="A25" s="9" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5">
       <c r="A26" s="9" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5">
       <c r="A27" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5">
       <c r="A28" s="9" t="s">
-        <v>191</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5">
       <c r="A29" s="9" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5">
       <c r="A30" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5">
       <c r="A31" s="9" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5">
       <c r="A32" s="9" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="9" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
